--- a/service/Resources/Base-aliados.xlsx
+++ b/service/Resources/Base-aliados.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$97</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="926">
   <si>
     <t>REGION</t>
   </si>
@@ -2788,6 +2791,42 @@
   </si>
   <si>
     <t>carmenegocios@hotmail.com</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>CO-ANT</t>
+  </si>
+  <si>
+    <t>CO-BOY</t>
+  </si>
+  <si>
+    <t>CO-ATL</t>
+  </si>
+  <si>
+    <t>CO-BOL</t>
+  </si>
+  <si>
+    <t>CO-CAQ</t>
+  </si>
+  <si>
+    <t>CO-VAC</t>
+  </si>
+  <si>
+    <t>CO-SAN</t>
+  </si>
+  <si>
+    <t>CO-NSA</t>
+  </si>
+  <si>
+    <t>CO-DC</t>
+  </si>
+  <si>
+    <t>CO-QUI</t>
+  </si>
+  <si>
+    <t>CO-RIS</t>
   </si>
 </sst>
 </file>
@@ -3105,33 +3144,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="M68" workbookViewId="0">
+      <selection activeCell="Q101" sqref="Q101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="44.75" customWidth="1"/>
     <col min="5" max="5" width="52.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="131.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="7" max="7" width="75.875" customWidth="1"/>
     <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="65.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="46" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="48.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="76.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="154.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="78.875" customWidth="1"/>
     <col min="15" max="15" width="39.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3180,8 +3219,11 @@
       <c r="P1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3230,8 +3272,11 @@
       <c r="P2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -3277,8 +3322,11 @@
       <c r="P3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -3324,8 +3372,11 @@
       <c r="P4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -3371,8 +3422,11 @@
       <c r="P5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -3418,8 +3472,11 @@
       <c r="P6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -3465,8 +3522,11 @@
       <c r="P7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -3512,8 +3572,11 @@
       <c r="P8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -3559,8 +3622,11 @@
       <c r="P9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -3606,8 +3672,11 @@
       <c r="P10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -3653,263 +3722,272 @@
       <c r="P11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>113</v>
-      </c>
+      <c r="Q11" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" t="s">
-        <v>123</v>
+        <v>167</v>
+      </c>
+      <c r="L12">
+        <v>3626323</v>
       </c>
       <c r="M12" t="s">
-        <v>124</v>
-      </c>
-      <c r="N12" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="O12" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" t="s">
-        <v>129</v>
+        <v>171</v>
+      </c>
+      <c r="E13">
+        <v>3565091</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="L13">
-        <v>3007474313</v>
+        <v>3773838</v>
       </c>
       <c r="M13" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="O13" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14">
-        <v>3164447063</v>
+        <v>184</v>
+      </c>
+      <c r="L14" t="s">
+        <v>185</v>
       </c>
       <c r="M14" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="O14" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="G15" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="I15" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="O15" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" t="s">
-        <v>152</v>
+        <v>198</v>
+      </c>
+      <c r="E16">
+        <v>3598929</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="G16" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="I16" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16">
-        <v>3008007276</v>
+        <v>203</v>
+      </c>
+      <c r="L16" t="s">
+        <v>204</v>
       </c>
       <c r="M16" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="O16" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" t="s">
-        <v>161</v>
+        <v>209</v>
+      </c>
+      <c r="E17">
+        <v>3595870</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="H17" t="s">
         <v>164</v>
@@ -3918,16 +3996,19 @@
         <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="L17">
-        <v>3626323</v>
+        <v>3106412593</v>
       </c>
       <c r="M17" t="s">
-        <v>168</v>
+        <v>214</v>
+      </c>
+      <c r="N17" t="s">
+        <v>215</v>
       </c>
       <c r="O17" t="s">
         <v>164</v>
@@ -3935,25 +4016,28 @@
       <c r="P17" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18">
-        <v>3565091</v>
+        <v>217</v>
+      </c>
+      <c r="E18" t="s">
+        <v>218</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="G18" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="H18" t="s">
         <v>164</v>
@@ -3962,19 +4046,16 @@
         <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
-      </c>
-      <c r="L18">
-        <v>3773838</v>
+        <v>222</v>
+      </c>
+      <c r="L18" t="s">
+        <v>223</v>
       </c>
       <c r="M18" t="s">
-        <v>176</v>
-      </c>
-      <c r="N18" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="O18" t="s">
         <v>164</v>
@@ -3982,69 +4063,78 @@
       <c r="P18" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" t="s">
-        <v>180</v>
+        <v>226</v>
+      </c>
+      <c r="E19">
+        <v>3146311405</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="G19" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="H19" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="I19" t="s">
         <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
-      </c>
-      <c r="L19" t="s">
-        <v>185</v>
+        <v>230</v>
+      </c>
+      <c r="L19">
+        <v>3004225610</v>
       </c>
       <c r="M19" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="O19" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="P19" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" t="s">
-        <v>190</v>
+        <v>235</v>
+      </c>
+      <c r="E20">
+        <v>3599494</v>
+      </c>
+      <c r="F20" t="s">
+        <v>236</v>
       </c>
       <c r="G20" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="H20" t="s">
         <v>164</v>
@@ -4053,19 +4143,19 @@
         <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
-      </c>
-      <c r="L20" t="s">
-        <v>194</v>
+        <v>239</v>
+      </c>
+      <c r="L20">
+        <v>3135139178</v>
       </c>
       <c r="M20" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="N20" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="O20" t="s">
         <v>164</v>
@@ -4073,25 +4163,28 @@
       <c r="P20" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21">
-        <v>3598929</v>
+        <v>243</v>
+      </c>
+      <c r="E21" t="s">
+        <v>244</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="G21" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="H21" t="s">
         <v>201</v>
@@ -4100,19 +4193,19 @@
         <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
-      </c>
-      <c r="L21" t="s">
-        <v>204</v>
+        <v>248</v>
+      </c>
+      <c r="L21">
+        <v>3007647726</v>
       </c>
       <c r="M21" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="N21" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="O21" t="s">
         <v>207</v>
@@ -4120,25 +4213,28 @@
       <c r="P21" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="E22">
-        <v>3595870</v>
+        <v>3730831</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="G22" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="H22" t="s">
         <v>164</v>
@@ -4147,19 +4243,19 @@
         <v>165</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="L22">
-        <v>3106412593</v>
+        <v>3630418</v>
       </c>
       <c r="M22" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="N22" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="O22" t="s">
         <v>164</v>
@@ -4167,260 +4263,281 @@
       <c r="P22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>259</v>
+      </c>
       <c r="B23">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="D23" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="E23" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="G23" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="H23" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="I23" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="M23" t="s">
-        <v>224</v>
+        <v>270</v>
+      </c>
+      <c r="N23" t="s">
+        <v>271</v>
       </c>
       <c r="O23" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
-      </c>
-      <c r="E24">
-        <v>3146311405</v>
+        <v>274</v>
+      </c>
+      <c r="E24" t="s">
+        <v>275</v>
       </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="G24" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="H24" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="I24" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="J24" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="K24" t="s">
-        <v>230</v>
-      </c>
-      <c r="L24">
-        <v>3004225610</v>
+        <v>279</v>
+      </c>
+      <c r="L24" t="s">
+        <v>280</v>
       </c>
       <c r="M24" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="N24" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="O24" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E25">
-        <v>3599494</v>
+        <v>284</v>
+      </c>
+      <c r="E25" t="s">
+        <v>285</v>
       </c>
       <c r="F25" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="G25" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="H25" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="J25" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="K25" t="s">
-        <v>239</v>
-      </c>
-      <c r="L25">
-        <v>3135139178</v>
+        <v>289</v>
+      </c>
+      <c r="L25" t="s">
+        <v>290</v>
       </c>
       <c r="M25" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="N25" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="O25" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="E26" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="G26" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="H26" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="I26" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
-      </c>
-      <c r="L26">
-        <v>3007647726</v>
+        <v>308</v>
+      </c>
+      <c r="L26" t="s">
+        <v>309</v>
       </c>
       <c r="M26" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="N26" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="O26" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="D27" t="s">
-        <v>252</v>
-      </c>
-      <c r="E27">
-        <v>3730831</v>
+        <v>303</v>
+      </c>
+      <c r="E27" t="s">
+        <v>304</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="G27" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="H27" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="I27" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
-      </c>
-      <c r="L27">
-        <v>3630418</v>
+        <v>313</v>
+      </c>
+      <c r="L27" t="s">
+        <v>314</v>
       </c>
       <c r="M27" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="O27" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>259</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="D28" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="E28" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="G28" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -4429,19 +4546,19 @@
         <v>266</v>
       </c>
       <c r="J28" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="K28" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="L28" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="M28" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="N28" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="O28" t="s">
         <v>265</v>
@@ -4449,25 +4566,28 @@
       <c r="P28" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="D29" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="E29" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="F29" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="G29" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="H29" t="s">
         <v>265</v>
@@ -4476,19 +4596,19 @@
         <v>266</v>
       </c>
       <c r="J29" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="K29" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="L29" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="M29" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="N29" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="O29" t="s">
         <v>265</v>
@@ -4496,25 +4616,28 @@
       <c r="P29" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="D30" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="E30" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="G30" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="H30" t="s">
         <v>265</v>
@@ -4523,19 +4646,19 @@
         <v>266</v>
       </c>
       <c r="J30" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="K30" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="L30" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="M30" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="N30" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="O30" t="s">
         <v>265</v>
@@ -4543,66 +4666,78 @@
       <c r="P30" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="D31" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="E31" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="F31" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="G31" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H31" t="s">
         <v>265</v>
       </c>
+      <c r="I31" t="s">
+        <v>266</v>
+      </c>
       <c r="J31" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="K31" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="L31">
-        <v>6720103</v>
+        <v>2358681</v>
       </c>
       <c r="M31" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="N31" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="O31" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="D32" t="s">
-        <v>303</v>
-      </c>
-      <c r="E32" t="s">
-        <v>304</v>
+        <v>347</v>
+      </c>
+      <c r="E32">
+        <v>6764055</v>
       </c>
       <c r="F32" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="G32" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="H32" t="s">
         <v>265</v>
@@ -4611,19 +4746,19 @@
         <v>266</v>
       </c>
       <c r="J32" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="K32" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="L32" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="M32" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="N32" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="O32" t="s">
         <v>265</v>
@@ -4631,25 +4766,28 @@
       <c r="P32" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="D33" t="s">
-        <v>303</v>
-      </c>
-      <c r="E33" t="s">
-        <v>304</v>
+        <v>356</v>
+      </c>
+      <c r="E33">
+        <v>3443000</v>
       </c>
       <c r="F33" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="G33" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="H33" t="s">
         <v>265</v>
@@ -4658,19 +4796,19 @@
         <v>266</v>
       </c>
       <c r="J33" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="K33" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="L33" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="M33" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="N33" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="O33" t="s">
         <v>265</v>
@@ -4678,25 +4816,28 @@
       <c r="P33" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="D34" t="s">
-        <v>303</v>
+        <v>365</v>
       </c>
       <c r="E34" t="s">
-        <v>304</v>
+        <v>366</v>
       </c>
       <c r="F34" t="s">
-        <v>305</v>
+        <v>367</v>
       </c>
       <c r="G34" t="s">
-        <v>306</v>
+        <v>368</v>
       </c>
       <c r="H34" t="s">
         <v>265</v>
@@ -4705,19 +4846,19 @@
         <v>266</v>
       </c>
       <c r="J34" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="L34" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="M34" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="N34" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="O34" t="s">
         <v>265</v>
@@ -4725,25 +4866,28 @@
       <c r="P34" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>302</v>
+        <v>374</v>
       </c>
       <c r="D35" t="s">
-        <v>303</v>
+        <v>375</v>
       </c>
       <c r="E35" t="s">
-        <v>304</v>
+        <v>376</v>
       </c>
       <c r="F35" t="s">
-        <v>305</v>
+        <v>377</v>
       </c>
       <c r="G35" t="s">
-        <v>306</v>
+        <v>378</v>
       </c>
       <c r="H35" t="s">
         <v>265</v>
@@ -4752,19 +4896,19 @@
         <v>266</v>
       </c>
       <c r="J35" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="K35" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="L35" t="s">
-        <v>324</v>
+        <v>381</v>
       </c>
       <c r="M35" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="N35" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="O35" t="s">
         <v>265</v>
@@ -4772,25 +4916,28 @@
       <c r="P35" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="D36" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="E36" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="G36" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="H36" t="s">
         <v>265</v>
@@ -4799,19 +4946,19 @@
         <v>266</v>
       </c>
       <c r="J36" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
-      </c>
-      <c r="L36" t="s">
-        <v>334</v>
+        <v>390</v>
+      </c>
+      <c r="L36">
+        <v>3132266002</v>
       </c>
       <c r="M36" t="s">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="N36" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="O36" t="s">
         <v>265</v>
@@ -4819,25 +4966,28 @@
       <c r="P36" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q36" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="D37" t="s">
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="E37" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="F37" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="G37" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="H37" t="s">
         <v>265</v>
@@ -4846,19 +4996,19 @@
         <v>266</v>
       </c>
       <c r="J37" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="K37" t="s">
-        <v>343</v>
-      </c>
-      <c r="L37">
-        <v>2358681</v>
+        <v>399</v>
+      </c>
+      <c r="L37" t="s">
+        <v>400</v>
       </c>
       <c r="M37" t="s">
-        <v>344</v>
+        <v>401</v>
       </c>
       <c r="N37" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="O37" t="s">
         <v>265</v>
@@ -4866,25 +5016,28 @@
       <c r="P37" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="D38" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="E38">
-        <v>6764055</v>
+        <v>2385969</v>
       </c>
       <c r="F38" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="G38" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="H38" t="s">
         <v>265</v>
@@ -4893,19 +5046,19 @@
         <v>266</v>
       </c>
       <c r="J38" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
       <c r="K38" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="L38" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="M38" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="N38" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="O38" t="s">
         <v>265</v>
@@ -4913,25 +5066,28 @@
       <c r="P38" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="D39" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="E39">
-        <v>3443000</v>
+        <v>2385969</v>
       </c>
       <c r="F39" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="G39" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="H39" t="s">
         <v>265</v>
@@ -4940,19 +5096,19 @@
         <v>266</v>
       </c>
       <c r="J39" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="K39" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="L39" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="M39" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="N39" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="O39" t="s">
         <v>265</v>
@@ -4960,25 +5116,28 @@
       <c r="P39" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="E40" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="F40" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="G40" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="H40" t="s">
         <v>265</v>
@@ -4987,19 +5146,19 @@
         <v>266</v>
       </c>
       <c r="J40" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="K40" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="L40" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="M40" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="N40" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="O40" t="s">
         <v>265</v>
@@ -5007,25 +5166,28 @@
       <c r="P40" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="D41" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="E41" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="F41" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="G41" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="H41" t="s">
         <v>265</v>
@@ -5034,19 +5196,19 @@
         <v>266</v>
       </c>
       <c r="J41" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="K41" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="L41" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="M41" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="N41" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="O41" t="s">
         <v>265</v>
@@ -5054,25 +5216,28 @@
       <c r="P41" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="D42" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="E42" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="F42" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="G42" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="H42" t="s">
         <v>265</v>
@@ -5081,19 +5246,19 @@
         <v>266</v>
       </c>
       <c r="J42" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="K42" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="L42">
-        <v>3132266002</v>
+        <v>3331159</v>
       </c>
       <c r="M42" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="N42" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="O42" t="s">
         <v>265</v>
@@ -5101,25 +5266,28 @@
       <c r="P42" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="D43" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="E43" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="F43" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="G43" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="H43" t="s">
         <v>265</v>
@@ -5128,19 +5296,19 @@
         <v>266</v>
       </c>
       <c r="J43" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="K43" t="s">
-        <v>399</v>
-      </c>
-      <c r="L43" t="s">
-        <v>400</v>
+        <v>451</v>
+      </c>
+      <c r="L43">
+        <v>3122592778</v>
       </c>
       <c r="M43" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="N43" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="O43" t="s">
         <v>265</v>
@@ -5148,25 +5316,28 @@
       <c r="P43" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="D44" t="s">
-        <v>404</v>
-      </c>
-      <c r="E44">
-        <v>2385969</v>
+        <v>455</v>
+      </c>
+      <c r="E44" t="s">
+        <v>456</v>
       </c>
       <c r="F44" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="G44" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="H44" t="s">
         <v>265</v>
@@ -5175,19 +5346,19 @@
         <v>266</v>
       </c>
       <c r="J44" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="K44" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="L44" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="M44" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="N44" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="O44" t="s">
         <v>265</v>
@@ -5195,25 +5366,25 @@
       <c r="P44" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="D45" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
       <c r="E45">
-        <v>2385969</v>
+        <v>2760358</v>
       </c>
       <c r="F45" t="s">
-        <v>405</v>
-      </c>
-      <c r="G45" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="H45" t="s">
         <v>265</v>
@@ -5222,19 +5393,19 @@
         <v>266</v>
       </c>
       <c r="J45" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="K45" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="L45" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="M45" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="N45" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="O45" t="s">
         <v>265</v>
@@ -5242,871 +5413,913 @@
       <c r="P45" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q45" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>620</v>
       </c>
       <c r="D46" t="s">
-        <v>417</v>
-      </c>
-      <c r="E46" t="s">
-        <v>418</v>
+        <v>621</v>
+      </c>
+      <c r="E46">
+        <v>3165000</v>
       </c>
       <c r="F46" t="s">
-        <v>419</v>
+        <v>622</v>
       </c>
       <c r="G46" t="s">
-        <v>420</v>
+        <v>623</v>
       </c>
       <c r="H46" t="s">
         <v>265</v>
       </c>
       <c r="I46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J46" t="s">
-        <v>421</v>
+        <v>624</v>
       </c>
       <c r="K46" t="s">
-        <v>422</v>
+        <v>625</v>
       </c>
       <c r="L46" t="s">
-        <v>423</v>
+        <v>626</v>
       </c>
       <c r="M46" t="s">
-        <v>424</v>
+        <v>627</v>
       </c>
       <c r="N46" t="s">
-        <v>425</v>
+        <v>628</v>
       </c>
       <c r="O46" t="s">
-        <v>265</v>
+        <v>613</v>
       </c>
       <c r="P46" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>426</v>
+        <v>620</v>
       </c>
       <c r="D47" t="s">
-        <v>427</v>
-      </c>
-      <c r="E47" t="s">
-        <v>428</v>
+        <v>621</v>
+      </c>
+      <c r="E47">
+        <v>3165000</v>
       </c>
       <c r="F47" t="s">
-        <v>429</v>
+        <v>622</v>
       </c>
       <c r="G47" t="s">
-        <v>430</v>
+        <v>623</v>
       </c>
       <c r="H47" t="s">
         <v>265</v>
       </c>
       <c r="I47" t="s">
+        <v>265</v>
+      </c>
+      <c r="J47" t="s">
+        <v>629</v>
+      </c>
+      <c r="K47" t="s">
+        <v>630</v>
+      </c>
+      <c r="L47" t="s">
+        <v>631</v>
+      </c>
+      <c r="N47" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>645</v>
+      </c>
+      <c r="D48" t="s">
+        <v>646</v>
+      </c>
+      <c r="E48">
+        <v>4324000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>647</v>
+      </c>
+      <c r="G48" t="s">
+        <v>648</v>
+      </c>
+      <c r="H48" t="s">
         <v>266</v>
       </c>
-      <c r="J47" t="s">
-        <v>431</v>
-      </c>
-      <c r="K47" t="s">
-        <v>432</v>
-      </c>
-      <c r="L47" t="s">
-        <v>433</v>
-      </c>
-      <c r="M47" t="s">
-        <v>434</v>
-      </c>
-      <c r="N47" t="s">
-        <v>435</v>
-      </c>
-      <c r="O47" t="s">
-        <v>265</v>
-      </c>
-      <c r="P47" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>21</v>
-      </c>
-      <c r="C48" t="s">
-        <v>436</v>
-      </c>
-      <c r="D48" t="s">
-        <v>437</v>
-      </c>
-      <c r="E48" t="s">
-        <v>438</v>
-      </c>
-      <c r="F48" t="s">
-        <v>439</v>
-      </c>
-      <c r="G48" t="s">
-        <v>440</v>
-      </c>
-      <c r="H48" t="s">
-        <v>265</v>
-      </c>
       <c r="I48" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="J48" t="s">
-        <v>441</v>
+        <v>649</v>
       </c>
       <c r="K48" t="s">
-        <v>442</v>
-      </c>
-      <c r="L48">
-        <v>3331159</v>
+        <v>650</v>
+      </c>
+      <c r="L48" t="s">
+        <v>651</v>
       </c>
       <c r="M48" t="s">
-        <v>443</v>
+        <v>652</v>
       </c>
       <c r="N48" t="s">
-        <v>444</v>
+        <v>653</v>
       </c>
       <c r="O48" t="s">
-        <v>265</v>
+        <v>654</v>
       </c>
       <c r="P48" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>445</v>
+        <v>664</v>
       </c>
       <c r="D49" t="s">
-        <v>446</v>
+        <v>665</v>
       </c>
       <c r="E49" t="s">
-        <v>447</v>
+        <v>666</v>
       </c>
       <c r="F49" t="s">
-        <v>448</v>
+        <v>667</v>
       </c>
       <c r="G49" t="s">
-        <v>449</v>
+        <v>668</v>
       </c>
       <c r="H49" t="s">
         <v>265</v>
       </c>
       <c r="I49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J49" t="s">
-        <v>450</v>
+        <v>669</v>
       </c>
       <c r="K49" t="s">
-        <v>451</v>
-      </c>
-      <c r="L49">
-        <v>3122592778</v>
+        <v>670</v>
+      </c>
+      <c r="L49" t="s">
+        <v>671</v>
       </c>
       <c r="M49" t="s">
-        <v>452</v>
+        <v>672</v>
       </c>
       <c r="N49" t="s">
-        <v>453</v>
+        <v>673</v>
       </c>
       <c r="O49" t="s">
-        <v>265</v>
+        <v>674</v>
       </c>
       <c r="P49" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>454</v>
+        <v>664</v>
       </c>
       <c r="D50" t="s">
-        <v>455</v>
+        <v>665</v>
       </c>
       <c r="E50" t="s">
-        <v>456</v>
+        <v>666</v>
       </c>
       <c r="F50" t="s">
-        <v>457</v>
+        <v>667</v>
       </c>
       <c r="G50" t="s">
-        <v>458</v>
+        <v>668</v>
       </c>
       <c r="H50" t="s">
         <v>265</v>
       </c>
       <c r="I50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J50" t="s">
-        <v>459</v>
+        <v>675</v>
       </c>
       <c r="K50" t="s">
-        <v>460</v>
-      </c>
-      <c r="L50" t="s">
-        <v>461</v>
+        <v>676</v>
+      </c>
+      <c r="L50">
+        <v>8242004</v>
       </c>
       <c r="M50" t="s">
-        <v>462</v>
+        <v>677</v>
       </c>
       <c r="N50" t="s">
-        <v>463</v>
+        <v>678</v>
       </c>
       <c r="O50" t="s">
-        <v>265</v>
+        <v>674</v>
       </c>
       <c r="P50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>464</v>
+        <v>690</v>
       </c>
       <c r="D51" t="s">
-        <v>465</v>
-      </c>
-      <c r="E51">
-        <v>2760358</v>
+        <v>691</v>
+      </c>
+      <c r="E51" t="s">
+        <v>692</v>
       </c>
       <c r="F51" t="s">
-        <v>466</v>
+        <v>693</v>
+      </c>
+      <c r="G51" t="s">
+        <v>694</v>
       </c>
       <c r="H51" t="s">
         <v>265</v>
       </c>
       <c r="I51" t="s">
+        <v>265</v>
+      </c>
+      <c r="J51" t="s">
+        <v>695</v>
+      </c>
+      <c r="K51" t="s">
+        <v>696</v>
+      </c>
+      <c r="L51" t="s">
+        <v>697</v>
+      </c>
+      <c r="M51" t="s">
+        <v>698</v>
+      </c>
+      <c r="N51" t="s">
+        <v>699</v>
+      </c>
+      <c r="O51" t="s">
+        <v>700</v>
+      </c>
+      <c r="P51" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>701</v>
+      </c>
+      <c r="D52" t="s">
+        <v>702</v>
+      </c>
+      <c r="E52">
+        <v>7717333</v>
+      </c>
+      <c r="F52" t="s">
+        <v>703</v>
+      </c>
+      <c r="G52" t="s">
+        <v>704</v>
+      </c>
+      <c r="H52" t="s">
+        <v>705</v>
+      </c>
+      <c r="I52" t="s">
+        <v>706</v>
+      </c>
+      <c r="J52" t="s">
+        <v>707</v>
+      </c>
+      <c r="K52" t="s">
+        <v>708</v>
+      </c>
+      <c r="M52" t="s">
+        <v>709</v>
+      </c>
+      <c r="N52" t="s">
+        <v>710</v>
+      </c>
+      <c r="O52" t="s">
+        <v>705</v>
+      </c>
+      <c r="P52" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>712</v>
+      </c>
+      <c r="D53" t="s">
+        <v>713</v>
+      </c>
+      <c r="E53">
+        <v>6684910</v>
+      </c>
+      <c r="F53" t="s">
+        <v>714</v>
+      </c>
+      <c r="G53" t="s">
+        <v>715</v>
+      </c>
+      <c r="H53" t="s">
         <v>266</v>
       </c>
-      <c r="J51" t="s">
-        <v>467</v>
-      </c>
-      <c r="K51" t="s">
-        <v>468</v>
-      </c>
-      <c r="L51" t="s">
-        <v>469</v>
-      </c>
-      <c r="M51" t="s">
-        <v>470</v>
-      </c>
-      <c r="N51" t="s">
-        <v>471</v>
-      </c>
-      <c r="O51" t="s">
+      <c r="I53" t="s">
+        <v>259</v>
+      </c>
+      <c r="J53" t="s">
+        <v>716</v>
+      </c>
+      <c r="K53" t="s">
+        <v>717</v>
+      </c>
+      <c r="L53" t="s">
+        <v>718</v>
+      </c>
+      <c r="M53" t="s">
+        <v>719</v>
+      </c>
+      <c r="N53" t="s">
+        <v>720</v>
+      </c>
+      <c r="O53" t="s">
+        <v>721</v>
+      </c>
+      <c r="P53" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>722</v>
+      </c>
+      <c r="D54" t="s">
+        <v>723</v>
+      </c>
+      <c r="E54" t="s">
+        <v>724</v>
+      </c>
+      <c r="F54" t="s">
+        <v>725</v>
+      </c>
+      <c r="G54" t="s">
+        <v>726</v>
+      </c>
+      <c r="H54" t="s">
         <v>265</v>
       </c>
-      <c r="P51" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>472</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>473</v>
-      </c>
-      <c r="D52" t="s">
-        <v>474</v>
-      </c>
-      <c r="E52">
-        <v>8851203</v>
-      </c>
-      <c r="F52" t="s">
-        <v>475</v>
-      </c>
-      <c r="G52" t="s">
-        <v>476</v>
-      </c>
-      <c r="H52" t="s">
-        <v>477</v>
-      </c>
-      <c r="I52" t="s">
-        <v>478</v>
-      </c>
-      <c r="J52" t="s">
-        <v>479</v>
-      </c>
-      <c r="K52" t="s">
-        <v>480</v>
-      </c>
-      <c r="L52">
-        <v>8833990</v>
-      </c>
-      <c r="M52" t="s">
-        <v>481</v>
-      </c>
-      <c r="N52" t="s">
-        <v>482</v>
-      </c>
-      <c r="O52" t="s">
-        <v>477</v>
-      </c>
-      <c r="P52" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>484</v>
-      </c>
-      <c r="D53" t="s">
-        <v>485</v>
-      </c>
-      <c r="E53" t="s">
-        <v>486</v>
-      </c>
-      <c r="F53" t="s">
-        <v>487</v>
-      </c>
-      <c r="G53" t="s">
-        <v>488</v>
-      </c>
-      <c r="H53" t="s">
-        <v>489</v>
-      </c>
-      <c r="I53" t="s">
-        <v>490</v>
-      </c>
-      <c r="J53" t="s">
-        <v>491</v>
-      </c>
-      <c r="K53" t="s">
-        <v>492</v>
-      </c>
-      <c r="L53" t="s">
-        <v>493</v>
-      </c>
-      <c r="M53" t="s">
-        <v>494</v>
-      </c>
-      <c r="N53" t="s">
-        <v>495</v>
-      </c>
-      <c r="O53" t="s">
-        <v>489</v>
-      </c>
-      <c r="P53" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>497</v>
-      </c>
-      <c r="D54" t="s">
-        <v>498</v>
-      </c>
-      <c r="E54">
-        <v>8745803</v>
-      </c>
-      <c r="F54" t="s">
-        <v>499</v>
-      </c>
-      <c r="G54" t="s">
-        <v>500</v>
-      </c>
-      <c r="H54" t="s">
-        <v>501</v>
-      </c>
       <c r="I54" t="s">
-        <v>478</v>
+        <v>265</v>
       </c>
       <c r="J54" t="s">
-        <v>502</v>
+        <v>727</v>
       </c>
       <c r="K54" t="s">
-        <v>503</v>
-      </c>
-      <c r="L54">
-        <v>8771850</v>
+        <v>728</v>
+      </c>
+      <c r="L54" t="s">
+        <v>729</v>
       </c>
       <c r="M54" t="s">
-        <v>504</v>
+        <v>730</v>
       </c>
       <c r="N54" t="s">
-        <v>505</v>
+        <v>731</v>
       </c>
       <c r="O54" t="s">
-        <v>501</v>
+        <v>732</v>
       </c>
       <c r="P54" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>506</v>
+        <v>293</v>
       </c>
       <c r="D55" t="s">
-        <v>507</v>
+        <v>294</v>
       </c>
       <c r="E55" t="s">
-        <v>508</v>
+        <v>295</v>
       </c>
       <c r="F55" t="s">
-        <v>509</v>
+        <v>296</v>
       </c>
       <c r="G55" t="s">
-        <v>510</v>
+        <v>297</v>
       </c>
       <c r="H55" t="s">
-        <v>511</v>
-      </c>
-      <c r="I55" t="s">
-        <v>512</v>
+        <v>265</v>
       </c>
       <c r="J55" t="s">
-        <v>513</v>
+        <v>298</v>
       </c>
       <c r="K55" t="s">
-        <v>514</v>
-      </c>
-      <c r="L55" t="s">
-        <v>515</v>
+        <v>299</v>
+      </c>
+      <c r="L55">
+        <v>6720103</v>
       </c>
       <c r="M55" t="s">
-        <v>516</v>
+        <v>300</v>
       </c>
       <c r="N55" t="s">
-        <v>517</v>
+        <v>301</v>
       </c>
       <c r="O55" t="s">
-        <v>518</v>
-      </c>
-      <c r="P55" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B56">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>751</v>
+      </c>
+      <c r="D56" t="s">
+        <v>752</v>
+      </c>
+      <c r="E56" t="s">
+        <v>753</v>
+      </c>
+      <c r="F56" t="s">
+        <v>754</v>
+      </c>
+      <c r="G56" t="s">
+        <v>755</v>
+      </c>
+      <c r="H56" t="s">
+        <v>266</v>
+      </c>
+      <c r="J56" t="s">
+        <v>756</v>
+      </c>
+      <c r="K56" t="s">
+        <v>757</v>
+      </c>
+      <c r="L56">
+        <v>8620084</v>
+      </c>
+      <c r="M56" t="s">
+        <v>758</v>
+      </c>
+      <c r="N56" t="s">
+        <v>759</v>
+      </c>
+      <c r="O56" t="s">
+        <v>760</v>
+      </c>
+      <c r="P56" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57" t="s">
+        <v>118</v>
+      </c>
+      <c r="H57" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" t="s">
+        <v>120</v>
+      </c>
+      <c r="J57" t="s">
+        <v>121</v>
+      </c>
+      <c r="K57" t="s">
+        <v>122</v>
+      </c>
+      <c r="L57" t="s">
+        <v>123</v>
+      </c>
+      <c r="M57" t="s">
+        <v>124</v>
+      </c>
+      <c r="N57" t="s">
+        <v>125</v>
+      </c>
+      <c r="O57" t="s">
+        <v>126</v>
+      </c>
+      <c r="P57" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H58" t="s">
+        <v>119</v>
+      </c>
+      <c r="I58" t="s">
+        <v>120</v>
+      </c>
+      <c r="J58" t="s">
+        <v>132</v>
+      </c>
+      <c r="K58" t="s">
+        <v>133</v>
+      </c>
+      <c r="L58">
+        <v>3007474313</v>
+      </c>
+      <c r="M58" t="s">
+        <v>134</v>
+      </c>
+      <c r="N58" t="s">
+        <v>135</v>
+      </c>
+      <c r="O58" t="s">
+        <v>126</v>
+      </c>
+      <c r="P58" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" t="s">
+        <v>131</v>
+      </c>
+      <c r="H59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I59" t="s">
+        <v>120</v>
+      </c>
+      <c r="J59" t="s">
+        <v>136</v>
+      </c>
+      <c r="K59" t="s">
+        <v>137</v>
+      </c>
+      <c r="L59">
+        <v>3164447063</v>
+      </c>
+      <c r="M59" t="s">
+        <v>138</v>
+      </c>
+      <c r="N59" t="s">
+        <v>139</v>
+      </c>
+      <c r="O59" t="s">
+        <v>126</v>
+      </c>
+      <c r="P59" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" t="s">
+        <v>144</v>
+      </c>
+      <c r="H60" t="s">
+        <v>119</v>
+      </c>
+      <c r="I60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J60" t="s">
+        <v>145</v>
+      </c>
+      <c r="K60" t="s">
+        <v>146</v>
+      </c>
+      <c r="L60" t="s">
+        <v>147</v>
+      </c>
+      <c r="M60" t="s">
+        <v>148</v>
+      </c>
+      <c r="N60" t="s">
+        <v>149</v>
+      </c>
+      <c r="O60" t="s">
+        <v>126</v>
+      </c>
+      <c r="P60" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B61">
         <v>5</v>
       </c>
-      <c r="C56" t="s">
-        <v>519</v>
-      </c>
-      <c r="D56" t="s">
-        <v>520</v>
-      </c>
-      <c r="E56">
-        <v>3151818</v>
-      </c>
-      <c r="F56" t="s">
-        <v>521</v>
-      </c>
-      <c r="G56" t="s">
-        <v>522</v>
-      </c>
-      <c r="H56" t="s">
-        <v>489</v>
-      </c>
-      <c r="I56" t="s">
-        <v>490</v>
-      </c>
-      <c r="J56" t="s">
-        <v>523</v>
-      </c>
-      <c r="K56" t="s">
-        <v>524</v>
-      </c>
-      <c r="L56">
-        <v>3113052545</v>
-      </c>
-      <c r="M56" t="s">
-        <v>525</v>
-      </c>
-      <c r="N56" t="s">
-        <v>526</v>
-      </c>
-      <c r="O56" t="s">
-        <v>489</v>
-      </c>
-      <c r="P56" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
-        <v>527</v>
-      </c>
-      <c r="D57" t="s">
-        <v>528</v>
-      </c>
-      <c r="E57" t="s">
-        <v>529</v>
-      </c>
-      <c r="F57" t="s">
-        <v>530</v>
-      </c>
-      <c r="G57" t="s">
-        <v>531</v>
-      </c>
-      <c r="H57" t="s">
-        <v>489</v>
-      </c>
-      <c r="I57" t="s">
-        <v>490</v>
-      </c>
-      <c r="J57" t="s">
-        <v>532</v>
-      </c>
-      <c r="K57" t="s">
-        <v>533</v>
-      </c>
-      <c r="L57" t="s">
-        <v>534</v>
-      </c>
-      <c r="M57" t="s">
-        <v>535</v>
-      </c>
-      <c r="N57" t="s">
-        <v>536</v>
-      </c>
-      <c r="O57" t="s">
-        <v>489</v>
-      </c>
-      <c r="P57" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>537</v>
-      </c>
-      <c r="D58" t="s">
-        <v>538</v>
-      </c>
-      <c r="E58">
-        <v>7493501.3205210604</v>
-      </c>
-      <c r="F58" t="s">
-        <v>539</v>
-      </c>
-      <c r="G58" t="s">
-        <v>540</v>
-      </c>
-      <c r="H58" t="s">
-        <v>511</v>
-      </c>
-      <c r="I58" t="s">
-        <v>512</v>
-      </c>
-      <c r="J58" t="s">
-        <v>541</v>
-      </c>
-      <c r="K58" t="s">
-        <v>542</v>
-      </c>
-      <c r="L58" t="s">
-        <v>543</v>
-      </c>
-      <c r="M58" t="s">
-        <v>544</v>
-      </c>
-      <c r="N58" t="s">
-        <v>545</v>
-      </c>
-      <c r="O58" t="s">
-        <v>511</v>
-      </c>
-      <c r="P58" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
-        <v>546</v>
-      </c>
-      <c r="D59" t="s">
-        <v>547</v>
-      </c>
-      <c r="E59">
-        <v>3379373</v>
-      </c>
-      <c r="F59" t="s">
-        <v>548</v>
-      </c>
-      <c r="G59" t="s">
-        <v>549</v>
-      </c>
-      <c r="H59" t="s">
-        <v>489</v>
-      </c>
-      <c r="I59" t="s">
-        <v>490</v>
-      </c>
-      <c r="J59" t="s">
-        <v>550</v>
-      </c>
-      <c r="K59" t="s">
-        <v>551</v>
-      </c>
-      <c r="L59" t="s">
-        <v>552</v>
-      </c>
-      <c r="M59" t="s">
-        <v>553</v>
-      </c>
-      <c r="N59" t="s">
-        <v>554</v>
-      </c>
-      <c r="O59" t="s">
-        <v>489</v>
-      </c>
-      <c r="P59" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s">
-        <v>555</v>
-      </c>
-      <c r="D60" t="s">
-        <v>556</v>
-      </c>
-      <c r="E60" t="s">
-        <v>557</v>
-      </c>
-      <c r="F60" t="s">
-        <v>558</v>
-      </c>
-      <c r="G60" t="s">
-        <v>559</v>
-      </c>
-      <c r="H60" t="s">
-        <v>489</v>
-      </c>
-      <c r="I60" t="s">
-        <v>490</v>
-      </c>
-      <c r="J60" t="s">
-        <v>560</v>
-      </c>
-      <c r="K60" t="s">
-        <v>561</v>
-      </c>
-      <c r="L60" t="s">
-        <v>562</v>
-      </c>
-      <c r="M60" t="s">
-        <v>563</v>
-      </c>
-      <c r="N60" t="s">
-        <v>564</v>
-      </c>
-      <c r="O60" t="s">
-        <v>489</v>
-      </c>
-      <c r="P60" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>10</v>
-      </c>
       <c r="C61" t="s">
-        <v>565</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>566</v>
-      </c>
-      <c r="E61">
-        <v>8745774</v>
+        <v>151</v>
+      </c>
+      <c r="E61" t="s">
+        <v>152</v>
       </c>
       <c r="F61" t="s">
-        <v>567</v>
+        <v>153</v>
       </c>
       <c r="G61" t="s">
-        <v>568</v>
+        <v>154</v>
       </c>
       <c r="H61" t="s">
+        <v>119</v>
+      </c>
+      <c r="I61" t="s">
+        <v>120</v>
+      </c>
+      <c r="J61" t="s">
+        <v>155</v>
+      </c>
+      <c r="K61" t="s">
+        <v>156</v>
+      </c>
+      <c r="L61">
+        <v>3008007276</v>
+      </c>
+      <c r="M61" t="s">
+        <v>157</v>
+      </c>
+      <c r="N61" t="s">
+        <v>158</v>
+      </c>
+      <c r="O61" t="s">
+        <v>126</v>
+      </c>
+      <c r="P61" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>472</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>473</v>
+      </c>
+      <c r="D62" t="s">
+        <v>474</v>
+      </c>
+      <c r="E62">
+        <v>8851203</v>
+      </c>
+      <c r="F62" t="s">
+        <v>475</v>
+      </c>
+      <c r="G62" t="s">
+        <v>476</v>
+      </c>
+      <c r="H62" t="s">
+        <v>477</v>
+      </c>
+      <c r="I62" t="s">
+        <v>478</v>
+      </c>
+      <c r="J62" t="s">
+        <v>479</v>
+      </c>
+      <c r="K62" t="s">
+        <v>480</v>
+      </c>
+      <c r="L62">
+        <v>8833990</v>
+      </c>
+      <c r="M62" t="s">
+        <v>481</v>
+      </c>
+      <c r="N62" t="s">
+        <v>482</v>
+      </c>
+      <c r="O62" t="s">
+        <v>477</v>
+      </c>
+      <c r="P62" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>497</v>
+      </c>
+      <c r="D63" t="s">
+        <v>498</v>
+      </c>
+      <c r="E63">
+        <v>8745803</v>
+      </c>
+      <c r="F63" t="s">
+        <v>499</v>
+      </c>
+      <c r="G63" t="s">
+        <v>500</v>
+      </c>
+      <c r="H63" t="s">
         <v>501</v>
-      </c>
-      <c r="I61" t="s">
-        <v>478</v>
-      </c>
-      <c r="J61" t="s">
-        <v>569</v>
-      </c>
-      <c r="K61" t="s">
-        <v>570</v>
-      </c>
-      <c r="L61" t="s">
-        <v>571</v>
-      </c>
-      <c r="M61" t="s">
-        <v>572</v>
-      </c>
-      <c r="N61" t="s">
-        <v>573</v>
-      </c>
-      <c r="O61" t="s">
-        <v>501</v>
-      </c>
-      <c r="P61" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>11</v>
-      </c>
-      <c r="C62" t="s">
-        <v>574</v>
-      </c>
-      <c r="D62" t="s">
-        <v>575</v>
-      </c>
-      <c r="E62">
-        <v>3314458</v>
-      </c>
-      <c r="F62" t="s">
-        <v>576</v>
-      </c>
-      <c r="G62" t="s">
-        <v>577</v>
-      </c>
-      <c r="H62" t="s">
-        <v>489</v>
-      </c>
-      <c r="I62" t="s">
-        <v>490</v>
-      </c>
-      <c r="J62" t="s">
-        <v>578</v>
-      </c>
-      <c r="K62" t="s">
-        <v>579</v>
-      </c>
-      <c r="L62">
-        <v>3122590275</v>
-      </c>
-      <c r="M62" t="s">
-        <v>580</v>
-      </c>
-      <c r="N62" t="s">
-        <v>581</v>
-      </c>
-      <c r="O62" t="s">
-        <v>489</v>
-      </c>
-      <c r="P62" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>12</v>
-      </c>
-      <c r="C63" t="s">
-        <v>582</v>
-      </c>
-      <c r="D63" t="s">
-        <v>583</v>
-      </c>
-      <c r="E63">
-        <v>3270149</v>
-      </c>
-      <c r="F63" t="s">
-        <v>584</v>
-      </c>
-      <c r="G63" t="s">
-        <v>585</v>
-      </c>
-      <c r="H63" t="s">
-        <v>477</v>
       </c>
       <c r="I63" t="s">
         <v>478</v>
       </c>
       <c r="J63" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="K63" t="s">
-        <v>587</v>
+        <v>503</v>
       </c>
       <c r="L63">
-        <v>8754548</v>
+        <v>8771850</v>
       </c>
       <c r="M63" t="s">
-        <v>588</v>
+        <v>504</v>
       </c>
       <c r="N63" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="O63" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="P63" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="D64" t="s">
-        <v>591</v>
-      </c>
-      <c r="E64" t="s">
-        <v>592</v>
+        <v>566</v>
+      </c>
+      <c r="E64">
+        <v>8745774</v>
       </c>
       <c r="F64" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="G64" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="H64" t="s">
         <v>501</v>
@@ -6115,19 +6328,19 @@
         <v>478</v>
       </c>
       <c r="J64" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="K64" t="s">
-        <v>596</v>
-      </c>
-      <c r="L64">
-        <v>87770113</v>
+        <v>570</v>
+      </c>
+      <c r="L64" t="s">
+        <v>571</v>
       </c>
       <c r="M64" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="N64" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="O64" t="s">
         <v>501</v>
@@ -6135,190 +6348,214 @@
       <c r="P64" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="D65" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E65">
-        <v>8749339</v>
+        <v>3270149</v>
       </c>
       <c r="F65" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="G65" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="H65" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="I65" t="s">
         <v>478</v>
       </c>
       <c r="J65" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="K65" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="L65">
-        <v>8741317</v>
+        <v>8754548</v>
       </c>
       <c r="M65" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="N65" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="O65" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="P65" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="Q65" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>590</v>
+      </c>
+      <c r="D66" t="s">
+        <v>591</v>
+      </c>
+      <c r="E66" t="s">
+        <v>592</v>
+      </c>
+      <c r="F66" t="s">
+        <v>593</v>
+      </c>
+      <c r="G66" t="s">
+        <v>594</v>
+      </c>
+      <c r="H66" t="s">
+        <v>501</v>
+      </c>
+      <c r="I66" t="s">
+        <v>478</v>
+      </c>
+      <c r="J66" t="s">
+        <v>595</v>
+      </c>
+      <c r="K66" t="s">
+        <v>596</v>
+      </c>
+      <c r="L66">
+        <v>87770113</v>
+      </c>
+      <c r="M66" t="s">
+        <v>597</v>
+      </c>
+      <c r="N66" t="s">
+        <v>598</v>
+      </c>
+      <c r="O66" t="s">
+        <v>501</v>
+      </c>
+      <c r="P66" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>599</v>
+      </c>
+      <c r="D67" t="s">
+        <v>600</v>
+      </c>
+      <c r="E67">
+        <v>8749339</v>
+      </c>
+      <c r="F67" t="s">
+        <v>601</v>
+      </c>
+      <c r="G67" t="s">
+        <v>602</v>
+      </c>
+      <c r="H67" t="s">
+        <v>501</v>
+      </c>
+      <c r="I67" t="s">
+        <v>478</v>
+      </c>
+      <c r="J67" t="s">
+        <v>603</v>
+      </c>
+      <c r="K67" t="s">
+        <v>604</v>
+      </c>
+      <c r="L67">
+        <v>8741317</v>
+      </c>
+      <c r="M67" t="s">
+        <v>605</v>
+      </c>
+      <c r="N67" t="s">
+        <v>606</v>
+      </c>
+      <c r="O67" t="s">
+        <v>501</v>
+      </c>
+      <c r="P67" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>607</v>
       </c>
-      <c r="B66">
+      <c r="B68">
         <v>1</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C68" t="s">
         <v>608</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D68" t="s">
         <v>609</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E68" t="s">
         <v>610</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F68" t="s">
         <v>611</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G68" t="s">
         <v>612</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H68" t="s">
         <v>613</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I68" t="s">
         <v>614</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J68" t="s">
         <v>615</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K68" t="s">
         <v>616</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L68" t="s">
         <v>617</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M68" t="s">
         <v>618</v>
       </c>
-      <c r="N66" t="s">
+      <c r="N68" t="s">
         <v>619</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O68" t="s">
         <v>613</v>
       </c>
-      <c r="P66" t="s">
+      <c r="P68" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
-        <v>620</v>
-      </c>
-      <c r="D67" t="s">
-        <v>621</v>
-      </c>
-      <c r="E67">
-        <v>3165000</v>
-      </c>
-      <c r="F67" t="s">
-        <v>622</v>
-      </c>
-      <c r="G67" t="s">
-        <v>623</v>
-      </c>
-      <c r="H67" t="s">
-        <v>265</v>
-      </c>
-      <c r="I67" t="s">
-        <v>265</v>
-      </c>
-      <c r="J67" t="s">
-        <v>624</v>
-      </c>
-      <c r="K67" t="s">
-        <v>625</v>
-      </c>
-      <c r="L67" t="s">
-        <v>626</v>
-      </c>
-      <c r="M67" t="s">
-        <v>627</v>
-      </c>
-      <c r="N67" t="s">
-        <v>628</v>
-      </c>
-      <c r="O67" t="s">
-        <v>613</v>
-      </c>
-      <c r="P67" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>620</v>
-      </c>
-      <c r="D68" t="s">
-        <v>621</v>
-      </c>
-      <c r="E68">
-        <v>3165000</v>
-      </c>
-      <c r="F68" t="s">
-        <v>622</v>
-      </c>
-      <c r="G68" t="s">
-        <v>623</v>
-      </c>
-      <c r="H68" t="s">
-        <v>265</v>
-      </c>
-      <c r="I68" t="s">
-        <v>265</v>
-      </c>
-      <c r="J68" t="s">
-        <v>629</v>
-      </c>
-      <c r="K68" t="s">
-        <v>630</v>
-      </c>
-      <c r="L68" t="s">
-        <v>631</v>
-      </c>
-      <c r="N68" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>4</v>
       </c>
@@ -6364,663 +6601,714 @@
       <c r="P69" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="D70" t="s">
-        <v>646</v>
-      </c>
-      <c r="E70">
-        <v>4324000</v>
+        <v>656</v>
+      </c>
+      <c r="E70" t="s">
+        <v>657</v>
       </c>
       <c r="F70" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="G70" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="H70" t="s">
-        <v>266</v>
+        <v>654</v>
       </c>
       <c r="I70" t="s">
-        <v>259</v>
+        <v>614</v>
       </c>
       <c r="J70" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="K70" t="s">
-        <v>650</v>
-      </c>
-      <c r="L70" t="s">
-        <v>651</v>
+        <v>661</v>
+      </c>
+      <c r="L70">
+        <v>3106794031</v>
       </c>
       <c r="M70" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="N70" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="O70" t="s">
-        <v>654</v>
+        <v>614</v>
       </c>
       <c r="P70" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="D71" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="E71" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="F71" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="G71" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="H71" t="s">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="I71" t="s">
         <v>614</v>
       </c>
       <c r="J71" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="K71" t="s">
-        <v>661</v>
-      </c>
-      <c r="L71">
-        <v>3106794031</v>
+        <v>686</v>
+      </c>
+      <c r="L71" t="s">
+        <v>687</v>
       </c>
       <c r="M71" t="s">
-        <v>662</v>
+        <v>688</v>
       </c>
       <c r="N71" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="O71" t="s">
+        <v>684</v>
+      </c>
+      <c r="P71" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>733</v>
+      </c>
+      <c r="D72" t="s">
+        <v>734</v>
+      </c>
+      <c r="E72" t="s">
+        <v>735</v>
+      </c>
+      <c r="F72" t="s">
+        <v>736</v>
+      </c>
+      <c r="G72" t="s">
+        <v>737</v>
+      </c>
+      <c r="H72" t="s">
+        <v>684</v>
+      </c>
+      <c r="I72" t="s">
         <v>614</v>
       </c>
-      <c r="P71" t="s">
+      <c r="J72" t="s">
+        <v>738</v>
+      </c>
+      <c r="K72" t="s">
+        <v>739</v>
+      </c>
+      <c r="L72" t="s">
+        <v>740</v>
+      </c>
+      <c r="M72" t="s">
+        <v>741</v>
+      </c>
+      <c r="N72" t="s">
+        <v>742</v>
+      </c>
+      <c r="O72" t="s">
+        <v>684</v>
+      </c>
+      <c r="P72" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>743</v>
+      </c>
+      <c r="D73" t="s">
+        <v>744</v>
+      </c>
+      <c r="E73">
+        <v>5922266</v>
+      </c>
+      <c r="F73" t="s">
+        <v>745</v>
+      </c>
+      <c r="G73" t="s">
+        <v>746</v>
+      </c>
+      <c r="H73" t="s">
+        <v>638</v>
+      </c>
+      <c r="I73" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B72">
+      <c r="J73" t="s">
+        <v>747</v>
+      </c>
+      <c r="K73" t="s">
+        <v>748</v>
+      </c>
+      <c r="L73">
+        <v>8740062</v>
+      </c>
+      <c r="M73" t="s">
+        <v>749</v>
+      </c>
+      <c r="N73" t="s">
+        <v>750</v>
+      </c>
+      <c r="O73" t="s">
+        <v>614</v>
+      </c>
+      <c r="P73" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>772</v>
+      </c>
+      <c r="D74" t="s">
+        <v>773</v>
+      </c>
+      <c r="E74" t="s">
+        <v>774</v>
+      </c>
+      <c r="F74" t="s">
+        <v>775</v>
+      </c>
+      <c r="G74" t="s">
+        <v>776</v>
+      </c>
+      <c r="H74" t="s">
+        <v>777</v>
+      </c>
+      <c r="I74" t="s">
+        <v>778</v>
+      </c>
+      <c r="J74" t="s">
+        <v>779</v>
+      </c>
+      <c r="K74" t="s">
+        <v>780</v>
+      </c>
+      <c r="L74">
+        <v>5764075</v>
+      </c>
+      <c r="M74" t="s">
+        <v>781</v>
+      </c>
+      <c r="N74" t="s">
+        <v>782</v>
+      </c>
+      <c r="O74" t="s">
+        <v>783</v>
+      </c>
+      <c r="P74" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>506</v>
+      </c>
+      <c r="D75" t="s">
+        <v>507</v>
+      </c>
+      <c r="E75" t="s">
+        <v>508</v>
+      </c>
+      <c r="F75" t="s">
+        <v>509</v>
+      </c>
+      <c r="G75" t="s">
+        <v>510</v>
+      </c>
+      <c r="H75" t="s">
+        <v>511</v>
+      </c>
+      <c r="I75" t="s">
+        <v>512</v>
+      </c>
+      <c r="J75" t="s">
+        <v>513</v>
+      </c>
+      <c r="K75" t="s">
+        <v>514</v>
+      </c>
+      <c r="L75" t="s">
+        <v>515</v>
+      </c>
+      <c r="M75" t="s">
+        <v>516</v>
+      </c>
+      <c r="N75" t="s">
+        <v>517</v>
+      </c>
+      <c r="O75" t="s">
+        <v>518</v>
+      </c>
+      <c r="P75" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B76">
         <v>7</v>
       </c>
-      <c r="C72" t="s">
-        <v>664</v>
-      </c>
-      <c r="D72" t="s">
-        <v>665</v>
-      </c>
-      <c r="E72" t="s">
-        <v>666</v>
-      </c>
-      <c r="F72" t="s">
-        <v>667</v>
-      </c>
-      <c r="G72" t="s">
-        <v>668</v>
-      </c>
-      <c r="H72" t="s">
-        <v>265</v>
-      </c>
-      <c r="I72" t="s">
-        <v>265</v>
-      </c>
-      <c r="J72" t="s">
-        <v>669</v>
-      </c>
-      <c r="K72" t="s">
-        <v>670</v>
-      </c>
-      <c r="L72" t="s">
-        <v>671</v>
-      </c>
-      <c r="M72" t="s">
-        <v>672</v>
-      </c>
-      <c r="N72" t="s">
-        <v>673</v>
-      </c>
-      <c r="O72" t="s">
-        <v>674</v>
-      </c>
-      <c r="P72" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B73">
+      <c r="C76" t="s">
+        <v>537</v>
+      </c>
+      <c r="D76" t="s">
+        <v>538</v>
+      </c>
+      <c r="E76">
+        <v>7493501.3205210604</v>
+      </c>
+      <c r="F76" t="s">
+        <v>539</v>
+      </c>
+      <c r="G76" t="s">
+        <v>540</v>
+      </c>
+      <c r="H76" t="s">
+        <v>511</v>
+      </c>
+      <c r="I76" t="s">
+        <v>512</v>
+      </c>
+      <c r="J76" t="s">
+        <v>541</v>
+      </c>
+      <c r="K76" t="s">
+        <v>542</v>
+      </c>
+      <c r="L76" t="s">
+        <v>543</v>
+      </c>
+      <c r="M76" t="s">
+        <v>544</v>
+      </c>
+      <c r="N76" t="s">
+        <v>545</v>
+      </c>
+      <c r="O76" t="s">
+        <v>511</v>
+      </c>
+      <c r="P76" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>484</v>
+      </c>
+      <c r="D77" t="s">
+        <v>485</v>
+      </c>
+      <c r="E77" t="s">
+        <v>486</v>
+      </c>
+      <c r="F77" t="s">
+        <v>487</v>
+      </c>
+      <c r="G77" t="s">
+        <v>488</v>
+      </c>
+      <c r="H77" t="s">
+        <v>489</v>
+      </c>
+      <c r="I77" t="s">
+        <v>490</v>
+      </c>
+      <c r="J77" t="s">
+        <v>491</v>
+      </c>
+      <c r="K77" t="s">
+        <v>492</v>
+      </c>
+      <c r="L77" t="s">
+        <v>493</v>
+      </c>
+      <c r="M77" t="s">
+        <v>494</v>
+      </c>
+      <c r="N77" t="s">
+        <v>495</v>
+      </c>
+      <c r="O77" t="s">
+        <v>489</v>
+      </c>
+      <c r="P77" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>519</v>
+      </c>
+      <c r="D78" t="s">
+        <v>520</v>
+      </c>
+      <c r="E78">
+        <v>3151818</v>
+      </c>
+      <c r="F78" t="s">
+        <v>521</v>
+      </c>
+      <c r="G78" t="s">
+        <v>522</v>
+      </c>
+      <c r="H78" t="s">
+        <v>489</v>
+      </c>
+      <c r="I78" t="s">
+        <v>490</v>
+      </c>
+      <c r="J78" t="s">
+        <v>523</v>
+      </c>
+      <c r="K78" t="s">
+        <v>524</v>
+      </c>
+      <c r="L78">
+        <v>3113052545</v>
+      </c>
+      <c r="M78" t="s">
+        <v>525</v>
+      </c>
+      <c r="N78" t="s">
+        <v>526</v>
+      </c>
+      <c r="O78" t="s">
+        <v>489</v>
+      </c>
+      <c r="P78" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>527</v>
+      </c>
+      <c r="D79" t="s">
+        <v>528</v>
+      </c>
+      <c r="E79" t="s">
+        <v>529</v>
+      </c>
+      <c r="F79" t="s">
+        <v>530</v>
+      </c>
+      <c r="G79" t="s">
+        <v>531</v>
+      </c>
+      <c r="H79" t="s">
+        <v>489</v>
+      </c>
+      <c r="I79" t="s">
+        <v>490</v>
+      </c>
+      <c r="J79" t="s">
+        <v>532</v>
+      </c>
+      <c r="K79" t="s">
+        <v>533</v>
+      </c>
+      <c r="L79" t="s">
+        <v>534</v>
+      </c>
+      <c r="M79" t="s">
+        <v>535</v>
+      </c>
+      <c r="N79" t="s">
+        <v>536</v>
+      </c>
+      <c r="O79" t="s">
+        <v>489</v>
+      </c>
+      <c r="P79" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B80">
         <v>8</v>
       </c>
-      <c r="C73" t="s">
-        <v>664</v>
-      </c>
-      <c r="D73" t="s">
-        <v>665</v>
-      </c>
-      <c r="E73" t="s">
-        <v>666</v>
-      </c>
-      <c r="F73" t="s">
-        <v>667</v>
-      </c>
-      <c r="G73" t="s">
-        <v>668</v>
-      </c>
-      <c r="H73" t="s">
-        <v>265</v>
-      </c>
-      <c r="I73" t="s">
-        <v>265</v>
-      </c>
-      <c r="J73" t="s">
-        <v>675</v>
-      </c>
-      <c r="K73" t="s">
-        <v>676</v>
-      </c>
-      <c r="L73">
-        <v>8242004</v>
-      </c>
-      <c r="M73" t="s">
-        <v>677</v>
-      </c>
-      <c r="N73" t="s">
-        <v>678</v>
-      </c>
-      <c r="O73" t="s">
-        <v>674</v>
-      </c>
-      <c r="P73" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B74">
+      <c r="C80" t="s">
+        <v>546</v>
+      </c>
+      <c r="D80" t="s">
+        <v>547</v>
+      </c>
+      <c r="E80">
+        <v>3379373</v>
+      </c>
+      <c r="F80" t="s">
+        <v>548</v>
+      </c>
+      <c r="G80" t="s">
+        <v>549</v>
+      </c>
+      <c r="H80" t="s">
+        <v>489</v>
+      </c>
+      <c r="I80" t="s">
+        <v>490</v>
+      </c>
+      <c r="J80" t="s">
+        <v>550</v>
+      </c>
+      <c r="K80" t="s">
+        <v>551</v>
+      </c>
+      <c r="L80" t="s">
+        <v>552</v>
+      </c>
+      <c r="M80" t="s">
+        <v>553</v>
+      </c>
+      <c r="N80" t="s">
+        <v>554</v>
+      </c>
+      <c r="O80" t="s">
+        <v>489</v>
+      </c>
+      <c r="P80" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B81">
         <v>9</v>
       </c>
-      <c r="C74" t="s">
-        <v>679</v>
-      </c>
-      <c r="D74" t="s">
-        <v>680</v>
-      </c>
-      <c r="E74" t="s">
-        <v>681</v>
-      </c>
-      <c r="F74" t="s">
-        <v>682</v>
-      </c>
-      <c r="G74" t="s">
-        <v>683</v>
-      </c>
-      <c r="H74" t="s">
-        <v>684</v>
-      </c>
-      <c r="I74" t="s">
-        <v>614</v>
-      </c>
-      <c r="J74" t="s">
-        <v>685</v>
-      </c>
-      <c r="K74" t="s">
-        <v>686</v>
-      </c>
-      <c r="L74" t="s">
-        <v>687</v>
-      </c>
-      <c r="M74" t="s">
-        <v>688</v>
-      </c>
-      <c r="N74" t="s">
-        <v>689</v>
-      </c>
-      <c r="O74" t="s">
-        <v>684</v>
-      </c>
-      <c r="P74" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
-        <v>690</v>
-      </c>
-      <c r="D75" t="s">
-        <v>691</v>
-      </c>
-      <c r="E75" t="s">
-        <v>692</v>
-      </c>
-      <c r="F75" t="s">
-        <v>693</v>
-      </c>
-      <c r="G75" t="s">
-        <v>694</v>
-      </c>
-      <c r="H75" t="s">
-        <v>265</v>
-      </c>
-      <c r="I75" t="s">
-        <v>265</v>
-      </c>
-      <c r="J75" t="s">
-        <v>695</v>
-      </c>
-      <c r="K75" t="s">
-        <v>696</v>
-      </c>
-      <c r="L75" t="s">
-        <v>697</v>
-      </c>
-      <c r="M75" t="s">
-        <v>698</v>
-      </c>
-      <c r="N75" t="s">
-        <v>699</v>
-      </c>
-      <c r="O75" t="s">
-        <v>700</v>
-      </c>
-      <c r="P75" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B76">
+      <c r="C81" t="s">
+        <v>555</v>
+      </c>
+      <c r="D81" t="s">
+        <v>556</v>
+      </c>
+      <c r="E81" t="s">
+        <v>557</v>
+      </c>
+      <c r="F81" t="s">
+        <v>558</v>
+      </c>
+      <c r="G81" t="s">
+        <v>559</v>
+      </c>
+      <c r="H81" t="s">
+        <v>489</v>
+      </c>
+      <c r="I81" t="s">
+        <v>490</v>
+      </c>
+      <c r="J81" t="s">
+        <v>560</v>
+      </c>
+      <c r="K81" t="s">
+        <v>561</v>
+      </c>
+      <c r="L81" t="s">
+        <v>562</v>
+      </c>
+      <c r="M81" t="s">
+        <v>563</v>
+      </c>
+      <c r="N81" t="s">
+        <v>564</v>
+      </c>
+      <c r="O81" t="s">
+        <v>489</v>
+      </c>
+      <c r="P81" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B82">
         <v>11</v>
       </c>
-      <c r="C76" t="s">
-        <v>701</v>
-      </c>
-      <c r="D76" t="s">
-        <v>702</v>
-      </c>
-      <c r="E76">
-        <v>7717333</v>
-      </c>
-      <c r="F76" t="s">
-        <v>703</v>
-      </c>
-      <c r="G76" t="s">
-        <v>704</v>
-      </c>
-      <c r="H76" t="s">
-        <v>705</v>
-      </c>
-      <c r="I76" t="s">
-        <v>706</v>
-      </c>
-      <c r="J76" t="s">
-        <v>707</v>
-      </c>
-      <c r="K76" t="s">
-        <v>708</v>
-      </c>
-      <c r="M76" t="s">
-        <v>709</v>
-      </c>
-      <c r="N76" t="s">
-        <v>710</v>
-      </c>
-      <c r="O76" t="s">
-        <v>705</v>
-      </c>
-      <c r="P76" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>12</v>
-      </c>
-      <c r="C77" t="s">
-        <v>712</v>
-      </c>
-      <c r="D77" t="s">
-        <v>713</v>
-      </c>
-      <c r="E77">
-        <v>6684910</v>
-      </c>
-      <c r="F77" t="s">
-        <v>714</v>
-      </c>
-      <c r="G77" t="s">
-        <v>715</v>
-      </c>
-      <c r="H77" t="s">
-        <v>266</v>
-      </c>
-      <c r="I77" t="s">
-        <v>259</v>
-      </c>
-      <c r="J77" t="s">
-        <v>716</v>
-      </c>
-      <c r="K77" t="s">
-        <v>717</v>
-      </c>
-      <c r="L77" t="s">
-        <v>718</v>
-      </c>
-      <c r="M77" t="s">
-        <v>719</v>
-      </c>
-      <c r="N77" t="s">
-        <v>720</v>
-      </c>
-      <c r="O77" t="s">
-        <v>721</v>
-      </c>
-      <c r="P77" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <v>13</v>
-      </c>
-      <c r="C78" t="s">
-        <v>722</v>
-      </c>
-      <c r="D78" t="s">
-        <v>723</v>
-      </c>
-      <c r="E78" t="s">
-        <v>724</v>
-      </c>
-      <c r="F78" t="s">
-        <v>725</v>
-      </c>
-      <c r="G78" t="s">
-        <v>726</v>
-      </c>
-      <c r="H78" t="s">
-        <v>265</v>
-      </c>
-      <c r="I78" t="s">
-        <v>265</v>
-      </c>
-      <c r="J78" t="s">
-        <v>727</v>
-      </c>
-      <c r="K78" t="s">
-        <v>728</v>
-      </c>
-      <c r="L78" t="s">
-        <v>729</v>
-      </c>
-      <c r="M78" t="s">
-        <v>730</v>
-      </c>
-      <c r="N78" t="s">
-        <v>731</v>
-      </c>
-      <c r="O78" t="s">
-        <v>732</v>
-      </c>
-      <c r="P78" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>14</v>
-      </c>
-      <c r="C79" t="s">
-        <v>733</v>
-      </c>
-      <c r="D79" t="s">
-        <v>734</v>
-      </c>
-      <c r="E79" t="s">
-        <v>735</v>
-      </c>
-      <c r="F79" t="s">
-        <v>736</v>
-      </c>
-      <c r="G79" t="s">
-        <v>737</v>
-      </c>
-      <c r="H79" t="s">
-        <v>684</v>
-      </c>
-      <c r="I79" t="s">
-        <v>614</v>
-      </c>
-      <c r="J79" t="s">
-        <v>738</v>
-      </c>
-      <c r="K79" t="s">
-        <v>739</v>
-      </c>
-      <c r="L79" t="s">
-        <v>740</v>
-      </c>
-      <c r="M79" t="s">
-        <v>741</v>
-      </c>
-      <c r="N79" t="s">
-        <v>742</v>
-      </c>
-      <c r="O79" t="s">
-        <v>684</v>
-      </c>
-      <c r="P79" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <v>15</v>
-      </c>
-      <c r="C80" t="s">
-        <v>743</v>
-      </c>
-      <c r="D80" t="s">
-        <v>744</v>
-      </c>
-      <c r="E80">
-        <v>5922266</v>
-      </c>
-      <c r="F80" t="s">
-        <v>745</v>
-      </c>
-      <c r="G80" t="s">
-        <v>746</v>
-      </c>
-      <c r="H80" t="s">
-        <v>638</v>
-      </c>
-      <c r="I80" t="s">
-        <v>614</v>
-      </c>
-      <c r="J80" t="s">
-        <v>747</v>
-      </c>
-      <c r="K80" t="s">
-        <v>748</v>
-      </c>
-      <c r="L80">
-        <v>8740062</v>
-      </c>
-      <c r="M80" t="s">
-        <v>749</v>
-      </c>
-      <c r="N80" t="s">
-        <v>750</v>
-      </c>
-      <c r="O80" t="s">
-        <v>614</v>
-      </c>
-      <c r="P80" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>16</v>
-      </c>
-      <c r="C81" t="s">
-        <v>751</v>
-      </c>
-      <c r="D81" t="s">
-        <v>752</v>
-      </c>
-      <c r="E81" t="s">
-        <v>753</v>
-      </c>
-      <c r="F81" t="s">
-        <v>754</v>
-      </c>
-      <c r="G81" t="s">
-        <v>755</v>
-      </c>
-      <c r="H81" t="s">
-        <v>266</v>
-      </c>
-      <c r="J81" t="s">
-        <v>756</v>
-      </c>
-      <c r="K81" t="s">
-        <v>757</v>
-      </c>
-      <c r="L81">
-        <v>8620084</v>
-      </c>
-      <c r="M81" t="s">
-        <v>758</v>
-      </c>
-      <c r="N81" t="s">
-        <v>759</v>
-      </c>
-      <c r="O81" t="s">
-        <v>760</v>
-      </c>
-      <c r="P81" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="C82" t="s">
+        <v>574</v>
+      </c>
+      <c r="D82" t="s">
+        <v>575</v>
+      </c>
+      <c r="E82">
+        <v>3314458</v>
+      </c>
+      <c r="F82" t="s">
+        <v>576</v>
+      </c>
+      <c r="G82" t="s">
+        <v>577</v>
+      </c>
+      <c r="H82" t="s">
+        <v>489</v>
+      </c>
+      <c r="I82" t="s">
+        <v>490</v>
+      </c>
+      <c r="J82" t="s">
+        <v>578</v>
+      </c>
+      <c r="K82" t="s">
+        <v>579</v>
+      </c>
+      <c r="L82">
+        <v>3122590275</v>
+      </c>
+      <c r="M82" t="s">
+        <v>580</v>
+      </c>
+      <c r="N82" t="s">
+        <v>581</v>
+      </c>
+      <c r="O82" t="s">
+        <v>489</v>
+      </c>
+      <c r="P82" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>761</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>1</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>762</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>763</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <v>6386152</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>764</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G83" t="s">
         <v>765</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H83" t="s">
         <v>766</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I83" t="s">
         <v>761</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J83" t="s">
         <v>767</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K83" t="s">
         <v>768</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L83" t="s">
         <v>769</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M83" t="s">
         <v>770</v>
       </c>
-      <c r="N82" t="s">
+      <c r="N83" t="s">
         <v>771</v>
       </c>
-      <c r="O82" t="s">
+      <c r="O83" t="s">
         <v>766</v>
       </c>
-      <c r="P82" t="s">
+      <c r="P83" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83" t="s">
-        <v>772</v>
-      </c>
-      <c r="D83" t="s">
-        <v>773</v>
-      </c>
-      <c r="E83" t="s">
-        <v>774</v>
-      </c>
-      <c r="F83" t="s">
-        <v>775</v>
-      </c>
-      <c r="G83" t="s">
-        <v>776</v>
-      </c>
-      <c r="H83" t="s">
-        <v>777</v>
-      </c>
-      <c r="I83" t="s">
-        <v>778</v>
-      </c>
-      <c r="J83" t="s">
-        <v>779</v>
-      </c>
-      <c r="K83" t="s">
-        <v>780</v>
-      </c>
-      <c r="L83">
-        <v>5764075</v>
-      </c>
-      <c r="M83" t="s">
-        <v>781</v>
-      </c>
-      <c r="N83" t="s">
-        <v>782</v>
-      </c>
-      <c r="O83" t="s">
-        <v>783</v>
-      </c>
-      <c r="P83" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>3</v>
       </c>
@@ -7066,8 +7354,11 @@
       <c r="P84" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>4</v>
       </c>
@@ -7113,8 +7404,11 @@
       <c r="P85" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>5</v>
       </c>
@@ -7160,8 +7454,11 @@
       <c r="P86" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>6</v>
       </c>
@@ -7207,8 +7504,11 @@
       <c r="P87" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>7</v>
       </c>
@@ -7254,8 +7554,11 @@
       <c r="P88" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>833</v>
       </c>
@@ -7304,8 +7607,11 @@
       <c r="P89" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>2</v>
       </c>
@@ -7348,8 +7654,11 @@
       <c r="P90" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>3</v>
       </c>
@@ -7395,8 +7704,11 @@
       <c r="P91" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>4</v>
       </c>
@@ -7439,8 +7751,11 @@
       <c r="P92" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>5</v>
       </c>
@@ -7483,8 +7798,11 @@
       <c r="P93" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>6</v>
       </c>
@@ -7530,8 +7848,11 @@
       <c r="P94" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>7</v>
       </c>
@@ -7577,8 +7898,11 @@
       <c r="P95" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>8</v>
       </c>
@@ -7624,8 +7948,11 @@
       <c r="P96" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q96" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>9</v>
       </c>
@@ -7671,8 +7998,17 @@
       <c r="P97" t="s">
         <v>847</v>
       </c>
+      <c r="Q97" t="s">
+        <v>920</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q97">
+    <sortState ref="A2:Q97">
+      <sortCondition ref="Q1:Q97"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="598" r:id="rId1"/>
 </worksheet>
 </file>